--- a/data/Subset 1/HILLARY LEWIS-WOLFSEN pt1.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSEN pt1.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
